--- a/Lab 08 - Solar Cell/solar_cell_data.xlsx
+++ b/Lab 08 - Solar Cell/solar_cell_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/samihat_rahman_mail_utoronto_ca/Documents/Desktop/PhD Requirements/2024 Summer CTFP/Experiment 9 - Solar Cells/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/samihat_rahman_mail_utoronto_ca/Documents/Desktop/Teaching/2024-25 Summer CTFP/Experiment 8 - Solar Cells/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC1048B8519A49685ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D81547EC-7A55-411C-881C-5D9D6707DC13}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC1048B8519A49685ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3643AD34-0A22-42B1-9A03-9DAFC5CA0F5B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="3915" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,8 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,25 +367,27 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="SHAwV03Z69q4mq8gvRAKTEDFOpffkMURBeOFZp3vUzOBNxM8kK+LvuGeVxRlAN9nbPw0Oul9/M8dUWEjioBYmw==" saltValue="gVAsJdI3Sh5yi7sM5E9W3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>